--- a/Code/Evaluation/SVM_Classifier_Predictions_All_Features_PCA_Classification_Report.xlsx
+++ b/Code/Evaluation/SVM_Classifier_Predictions_All_Features_PCA_Classification_Report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.9176029962546817</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1541218637992832</v>
+        <v>0.8781362007168458</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2621951219512196</v>
+        <v>0.8974358974358974</v>
       </c>
       <c r="E2" t="n">
         <v>279</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.875</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1971830985915493</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E3" t="n">
         <v>189</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7829181494661922</v>
+        <v>0.8922018348623854</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4988662131519274</v>
+        <v>0.8820861678004536</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6094182825484765</v>
+        <v>0.8871151653363741</v>
       </c>
       <c r="E4" t="n">
         <v>441</v>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5030837004405286</v>
+        <v>0.8910569105691057</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9844827586206897</v>
+        <v>0.9448275862068966</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6658892128279883</v>
+        <v>0.9171548117154813</v>
       </c>
       <c r="E5" t="n">
         <v>580</v>
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5742108797850907</v>
+        <v>0.8985896574882472</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5742108797850907</v>
+        <v>0.8985896574882472</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5742108797850907</v>
+        <v>0.8985896574882472</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5742108797850907</v>
+        <v>0.8985896574882472</v>
       </c>
     </row>
     <row r="7">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7596382175787211</v>
+        <v>0.9032856108601397</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4371454866707528</v>
+        <v>0.8826116950302553</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4336714289798084</v>
+        <v>0.8920931352886048</v>
       </c>
       <c r="E7" t="n">
         <v>1489</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7033359199892377</v>
+        <v>0.8990640066427323</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5742108797850907</v>
+        <v>0.8985896574882472</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5140290468114872</v>
+        <v>0.8981545964358197</v>
       </c>
       <c r="E8" t="n">
         <v>1489</v>
